--- a/biology/Histoire de la zoologie et de la botanique/Harry_Church_Oberholser/Harry_Church_Oberholser.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Harry_Church_Oberholser/Harry_Church_Oberholser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harry Church Oberholser (25 juin 1870 - 25 décembre 1963) est un ornithologue américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il travaille d'abord pour le « United States Bureau of Biological Survey » devenu le « United States Fish and Wildlife Service » de 1895 à 1941, en tant qu'ornithologue puis comme biologiste, et enfin comme directeur.
 Il écrit de nombreux livres et articles sur les oiseaux d'Amérique, d'Afrique et d'Asie. Oberholser est l'auteur de la famille des hémiprocnidés, pour les quatre martinets arboricoles  qu'il a ainsi distingués des autres espèces d'apodidés.
@@ -543,7 +557,9 @@
           <t>Principaux ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The Bird Life of Texas (1974)
 Birds of Mt. Kilimanjaro (1905)
